--- a/biology/Biologie cellulaire et moléculaire/NUMB_(protéine)/NUMB_(protéine).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/NUMB_(protéine)/NUMB_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMB_(prot%C3%A9ine)</t>
+          <t>NUMB_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NUMB est une protéine. Son gène est NUMB situé sur le chromosome 14 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMB_(prot%C3%A9ine)</t>
+          <t>NUMB_(protéine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de voie de signalisation Notch et a un rôle de gène suppresseur de tumeurs[5]. Il intervient dans la polarisation des divisions cellulaires, la migration et l'adhésion cellulaire, l'endocytose[6].
-Il inhibe également le signal ERBB2, permettant d'éviter la non-compaction ventriculaire gauche, une anomalie de trabéculation du cœur[7].
-Des études récentes présentent que la protéine Numb, plus précisément protéine Numb-72, possède une fonction importante dans le cerveau. En effet, cette protéine y empêche le dégât de neurone provoqué par la protéine tau, lequel cause notamment la maladie d'Alzheimer[8],[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de voie de signalisation Notch et a un rôle de gène suppresseur de tumeurs. Il intervient dans la polarisation des divisions cellulaires, la migration et l'adhésion cellulaire, l'endocytose.
+Il inhibe également le signal ERBB2, permettant d'éviter la non-compaction ventriculaire gauche, une anomalie de trabéculation du cœur.
+Des études récentes présentent que la protéine Numb, plus précisément protéine Numb-72, possède une fonction importante dans le cerveau. En effet, cette protéine y empêche le dégât de neurone provoqué par la protéine tau, lequel cause notamment la maladie d'Alzheimer,.
 </t>
         </is>
       </c>
